--- a/Result/VAR/Manufacturing/AUS.xlsx
+++ b/Result/VAR/Manufacturing/AUS.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,253 +460,263 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B2" t="n">
-        <v>1.233982852088049</v>
+        <v>13.18009964968262</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2826763372789802</v>
+        <v>12.72425138211406</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03881105412860109</v>
+        <v>12.65785286803129</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.4131791513640408</v>
+        <v>12.77440581109808</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2999174472903405</v>
+        <v>12.85449441158461</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.05749040600254851</v>
+        <v>12.66909203392301</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6058332185430384</v>
+        <v>12.43188907280924</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.6849983631542393</v>
+        <v>12.13498291317227</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B10" t="n">
-        <v>0.13520004491577</v>
+        <v>11.92065881213938</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1943857827399089</v>
+        <v>11.72709196822052</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B12" t="n">
-        <v>0.139437041711469</v>
+        <v>11.3094661429657</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7444857779786584</v>
+        <v>11.01718630668362</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2868338732945581</v>
+        <v>10.60391915963347</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.5672818892154403</v>
+        <v>10.54219003490809</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1045036633985923</v>
+        <v>10.29180908672768</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1586136075877977</v>
+        <v>10.05106056763595</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5129371420049242</v>
+        <v>9.497316915870762</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.6602045704429305</v>
+        <v>9.137611773638881</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2921795648373688</v>
+        <v>8.405494326485879</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.1720285308243108</v>
+        <v>7.707667213300669</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3104625875281464</v>
+        <v>7.298249155968027</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1240628626145401</v>
+        <v>7.280665715942083</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2024227986586009</v>
+        <v>6.626158854802686</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1710614202528884</v>
+        <v>6.415249349161683</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.1458609851162276</v>
+        <v>6.236882760797225</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6.140361965445657</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -754,7 +764,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.4723453763709542</v>
+        <v>6.113437268770937</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -764,7 +774,7 @@
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3156905434089683</v>
+        <v>6.129324017637515</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -774,7 +784,7 @@
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1338202827963934</v>
+        <v>6.207925654185885</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -784,7 +794,7 @@
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4008222579501369</v>
+        <v>6.31145923050218</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -794,7 +804,7 @@
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.02755508267550172</v>
+        <v>6.490043515426692</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -810,7 +820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,323 +852,313 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B2" t="n">
-        <v>13.79344438155173</v>
+        <v>13.23884058761216</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B3" t="n">
-        <v>12.5698102029463</v>
+        <v>12.68472044400386</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B4" t="n">
-        <v>12.58015887642892</v>
+        <v>12.63593205229932</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B5" t="n">
-        <v>12.87318388719052</v>
+        <v>12.76920385377928</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B6" t="n">
-        <v>13.20501995208072</v>
+        <v>12.88042078829129</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B7" t="n">
-        <v>13.12367686560688</v>
+        <v>12.70185643657713</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B8" t="n">
-        <v>12.7424163318427</v>
+        <v>12.48872221247919</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B9" t="n">
-        <v>12.30366539207597</v>
+        <v>12.10046809698646</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B10" t="n">
-        <v>12.47074767085228</v>
+        <v>11.97945967695825</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B11" t="n">
-        <v>11.95283158647435</v>
+        <v>11.67210176314776</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B12" t="n">
-        <v>11.57011554701219</v>
+        <v>11.32340652335218</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B13" t="n">
-        <v>10.99301372481012</v>
+        <v>10.96709215899097</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B14" t="n">
-        <v>10.55534894431952</v>
+        <v>10.56153424571948</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B15" t="n">
-        <v>10.86216994180758</v>
+        <v>10.53490958799802</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B16" t="n">
-        <v>10.88215706600108</v>
+        <v>10.32478181272105</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B17" t="n">
-        <v>10.33486230097914</v>
+        <v>10.03341459593763</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B18" t="n">
-        <v>9.892071199355792</v>
+        <v>9.418313522834472</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B19" t="n">
-        <v>9.290666490144647</v>
+        <v>9.107426972157848</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B20" t="n">
-        <v>9.202198922938425</v>
+        <v>8.353862654043201</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B21" t="n">
-        <v>8.453526785289274</v>
+        <v>7.721057356777965</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B22" t="n">
-        <v>7.997034212477491</v>
+        <v>7.289872646153971</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B23" t="n">
-        <v>7.368513108841397</v>
+        <v>7.189347402481694</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B24" t="n">
-        <v>7.05045459273345</v>
+        <v>6.874165774715665</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B25" t="n">
-        <v>6.608333214010963</v>
+        <v>6.557044399436457</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B26" t="n">
-        <v>6.368634633947076</v>
+        <v>6.160628200216358</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B27" t="n">
-        <v>6.299997474136078</v>
+        <v>6.027454955369224</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B28" t="n">
-        <v>6.085499329208853</v>
+        <v>5.971869049168824</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B29" t="n">
-        <v>5.798737462442747</v>
+        <v>5.737572591407001</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B30" t="n">
-        <v>5.777271824567839</v>
+        <v>5.581456198314782</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B31" t="n">
-        <v>5.615118064276127</v>
+        <v>5.526337618525091</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B32" t="n">
-        <v>5.651114209643661</v>
+        <v>5.630699411273427</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B33" t="n">
-        <v>5.565623775405053</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1206,7 +1206,7 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>1.45276572435951</v>
+        <v>6.234246727068481</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.777652329543651</v>
+        <v>6.790643801957671</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1226,7 +1226,7 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.5866256188143382</v>
+        <v>7.086344500236706</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1236,7 +1236,7 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>1.018754284995503</v>
+        <v>7.34735383675627</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1246,7 +1246,7 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6174856569372973</v>
+        <v>7.656039958812215</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
